--- a/target/test-classes/TestData/Login _data.xlsx
+++ b/target/test-classes/TestData/Login _data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>standard_user</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>Stagsghdgdh</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +409,12 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
